--- a/excels/block1.xlsx
+++ b/excels/block1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhangZhihua\git\RegisterPrinter\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45E7DDA-963A-49EC-B8F2-F0EC7B939146}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6AA620-2D5C-45B9-BE69-EDB22867B2F6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="2025" windowWidth="14925" windowHeight="11850" activeTab="1" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
+    <workbookView xWindow="11520" yWindow="1050" windowWidth="16965" windowHeight="11850" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
   <si>
     <t>Module description:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>asdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4915A7C1-6506-4C54-966C-F795DE988BD6}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -539,7 +543,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -598,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D33A049-DC09-4FC1-9AD2-1B7B43D86792}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -671,7 +675,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -723,5 +727,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excels/block1.xlsx
+++ b/excels/block1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhangZhihua\git\RegisterPrinter\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6AA620-2D5C-45B9-BE69-EDB22867B2F6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F1B1D6-2CEE-41C7-AE6D-B2279B3E7816}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="1050" windowWidth="16965" windowHeight="11850" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
+    <workbookView xWindow="6150" yWindow="1470" windowWidth="16965" windowHeight="11850" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
   <si>
     <t>Module description:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>0x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +474,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
@@ -595,6 +599,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/excels/block1.xlsx
+++ b/excels/block1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhangZhihua\git\RegisterPrinter\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\git\RegisterPrinter\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F1B1D6-2CEE-41C7-AE6D-B2279B3E7816}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAA414A-0FE1-487B-9121-568F811D5CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="1470" windowWidth="16965" windowHeight="11850" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
   <si>
     <t>Module description:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,10 @@
   </si>
   <si>
     <t>RW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Register1-Field1 注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,16 +478,16 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -505,7 +509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>7</v>
       </c>
@@ -522,10 +526,10 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>10</v>
       </c>
@@ -545,7 +549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -556,7 +560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>7</v>
       </c>
@@ -576,7 +580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>12</v>
       </c>
@@ -611,12 +615,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -638,7 +642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>7</v>
       </c>
@@ -658,7 +662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>10</v>
       </c>
@@ -678,7 +682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -689,7 +693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>7</v>
       </c>
@@ -709,7 +713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>12</v>
       </c>

--- a/excels/block1.xlsx
+++ b/excels/block1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\git\RegisterPrinter\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAA414A-0FE1-487B-9121-568F811D5CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032C50F0-CC8D-4B1E-86C3-146E0D1ABE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -106,11 +100,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Register1-Field1 注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RWP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +472,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -520,13 +514,13 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
         <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -540,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>

--- a/excels/block1.xlsx
+++ b/excels/block1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\git\RegisterPrinter\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032C50F0-CC8D-4B1E-86C3-146E0D1ABE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2219E8-58CC-45E4-A1A9-0C6926DB0C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
+    <workbookView xWindow="4920" yWindow="1170" windowWidth="28800" windowHeight="15370" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
   <si>
     <t>Module description:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,11 +106,198 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Register1-Field1 注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RWP</t>
+    <t>RW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block Type1 Registers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>array_len</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>array_offset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_addr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_addr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x101E</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_array1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_array2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field5</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>0x2</t>
+  </si>
+  <si>
+    <t>register aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registeraa_field4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registeraa_field5</t>
+  </si>
+  <si>
+    <t>0x1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_a2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field7</t>
+  </si>
+  <si>
+    <t>reg_a3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field9</t>
+  </si>
+  <si>
+    <t>0x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registera2_field6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registera2_field7</t>
+  </si>
+  <si>
+    <t>register a2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register a3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registera3_field8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registera3_field9</t>
+  </si>
+  <si>
+    <t>0x1020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x101E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +318,22 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -151,8 +360,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -170,6 +382,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{991E8DFD-7F4D-4AEA-A9FC-EC543E27C555}" name="表1" displayName="表1" ref="A6:H30" totalsRowShown="0">
+  <autoFilter ref="A6:H30" xr:uid="{5EEAF473-4C15-42DD-8CEE-26095326A763}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{AB1A720C-DB69-4BB5-85E0-49980FA4631F}" name="Offset"/>
+    <tableColumn id="2" xr3:uid="{21E4A337-5BAE-4855-955A-C2717BFA7B44}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{7783E665-0DB6-4594-8687-37921F5440EB}" name="MSB"/>
+    <tableColumn id="4" xr3:uid="{480FF24C-8EDE-44A8-A253-CA4C3E4C6101}" name="LSB"/>
+    <tableColumn id="5" xr3:uid="{B602CBF1-6C1A-44D0-A536-D8B95FF2A257}" name="Field Name"/>
+    <tableColumn id="6" xr3:uid="{C42831D1-5610-48C4-8380-9B8EA34F8FEB}" name="Access"/>
+    <tableColumn id="7" xr3:uid="{76649F71-CE59-4672-9FC3-5F65870665BE}" name="Default Value"/>
+    <tableColumn id="8" xr3:uid="{D25B1402-89D8-40A3-9DE9-906ADFDC63AA}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -469,97 +698,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4915A7C1-6506-4C54-966C-F795DE988BD6}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="12.08203125" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="F8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C6">
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D9">
         <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -571,33 +850,276 @@
         <v>7</v>
       </c>
       <c r="H9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13">
         <v>12</v>
       </c>
-      <c r="D10">
+      <c r="D13">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F13" t="s">
         <v>5</v>
       </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>31</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F18 F20:F22 F24:F26 F28:F29" xr:uid="{4096D060-3F28-4448-80C0-EA07DD153096}">
+      <formula1>"RW, RO,RS,RC,W1C,WO,WRS,WRC"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -609,12 +1131,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +1147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -636,7 +1158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>7</v>
       </c>
@@ -656,7 +1178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>10</v>
       </c>
@@ -676,7 +1198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -687,7 +1209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>7</v>
       </c>
@@ -707,7 +1229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>12</v>
       </c>

--- a/excels/block1.xlsx
+++ b/excels/block1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\git\RegisterPrinter\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2219E8-58CC-45E4-A1A9-0C6926DB0C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A05FE8D-AA45-4F34-99E9-92785EC1A668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="1170" windowWidth="28800" windowHeight="15370" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
+    <workbookView xWindow="14930" yWindow="1350" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
   <si>
     <t>Module description:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,7 +305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +337,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -346,12 +355,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -360,11 +384,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -700,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4915A7C1-6506-4C54-966C-F795DE988BD6}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1125,15 +1152,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D33A049-DC09-4FC1-9AD2-1B7B43D86792}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1147,105 +1176,131 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
         <v>5</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G7" t="s">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C8">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G8" t="s">
         <v>7</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C9">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11">
         <v>7</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F11" t="s">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G11" t="s">
         <v>7</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12">
         <v>12</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F12" t="s">
         <v>5</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G12" t="s">
         <v>7</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H12" t="s">
         <v>14</v>
       </c>
     </row>

--- a/excels/block1.xlsx
+++ b/excels/block1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\git\RegisterPrinter\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A05FE8D-AA45-4F34-99E9-92785EC1A668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D7693D-7726-4144-9BAF-93B61E890E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14930" yWindow="1350" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
+    <workbookView xWindow="17250" yWindow="1090" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
@@ -1155,7 +1155,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/excels/block1.xlsx
+++ b/excels/block1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\git\RegisterPrinter\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D7693D-7726-4144-9BAF-93B61E890E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D9936E-F009-42D0-ABC6-3E9C27273F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17250" yWindow="1090" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
+    <workbookView xWindow="24970" yWindow="1210" windowWidth="13210" windowHeight="15370" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="69">
   <si>
     <t>Module description:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,8 +412,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{991E8DFD-7F4D-4AEA-A9FC-EC543E27C555}" name="表1" displayName="表1" ref="A6:H30" totalsRowShown="0">
-  <autoFilter ref="A6:H30" xr:uid="{5EEAF473-4C15-42DD-8CEE-26095326A763}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{991E8DFD-7F4D-4AEA-A9FC-EC543E27C555}" name="表1" displayName="表1" ref="A8:H32" totalsRowShown="0">
+  <autoFilter ref="A8:H32" xr:uid="{5EEAF473-4C15-42DD-8CEE-26095326A763}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{AB1A720C-DB69-4BB5-85E0-49980FA4631F}" name="Offset"/>
     <tableColumn id="2" xr3:uid="{21E4A337-5BAE-4855-955A-C2717BFA7B44}" name="Name"/>
@@ -725,16 +725,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4915A7C1-6506-4C54-966C-F795DE988BD6}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="12.08203125" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
@@ -750,395 +751,398 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G8" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" t="s">
         <v>4</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G10" t="s">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C9">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F11" t="s">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G11" t="s">
         <v>7</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C12">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14">
         <v>7</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F14" t="s">
         <v>5</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G14" t="s">
         <v>7</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C13">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15">
         <v>12</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>9</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F15" t="s">
         <v>5</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G15" t="s">
         <v>7</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C16">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18">
         <v>3</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E18" t="s">
         <v>41</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F18" t="s">
         <v>43</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G18" t="s">
         <v>7</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C17">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C19">
         <v>31</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>4</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E19" t="s">
         <v>42</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F19" t="s">
         <v>44</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G19" t="s">
         <v>45</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>49</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C20">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C22">
         <v>10</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E22" t="s">
         <v>52</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F22" t="s">
         <v>44</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G22" t="s">
         <v>57</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C21">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23">
         <v>31</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <v>11</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E23" t="s">
         <v>53</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F23" t="s">
         <v>44</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G23" t="s">
         <v>57</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>68</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C24">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C26">
         <v>11</v>
       </c>
-      <c r="D24">
+      <c r="D26">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E26" t="s">
         <v>55</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F26" t="s">
         <v>44</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G26" t="s">
         <v>58</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C27">
         <v>15</v>
       </c>
-      <c r="D25">
+      <c r="D27">
         <v>12</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E27" t="s">
         <v>56</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F27" t="s">
         <v>44</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G27" t="s">
         <v>59</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>66</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>51</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C28">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C30">
         <v>10</v>
       </c>
-      <c r="D28">
+      <c r="D30">
         <v>0</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E30" t="s">
         <v>52</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F30" t="s">
         <v>44</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G30" t="s">
         <v>58</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C29">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C31">
         <v>31</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>11</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E31" t="s">
         <v>53</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F31" t="s">
         <v>44</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G31" t="s">
         <v>67</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H31" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F18 F20:F22 F24:F26 F28:F29" xr:uid="{4096D060-3F28-4448-80C0-EA07DD153096}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F20 F22:F24 F26:F28 F30:F31" xr:uid="{4096D060-3F28-4448-80C0-EA07DD153096}">
       <formula1>"RW, RO,RS,RC,W1C,WO,WRS,WRC"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1154,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D33A049-DC09-4FC1-9AD2-1B7B43D86792}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/excels/block1.xlsx
+++ b/excels/block1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\git\RegisterPrinter\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D9936E-F009-42D0-ABC6-3E9C27273F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC025CC2-DB0A-4C31-A4C7-22954929B9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24970" yWindow="1210" windowWidth="13210" windowHeight="15370" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
+    <workbookView xWindow="1700" yWindow="1300" windowWidth="18520" windowHeight="15760" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
   <si>
     <t>Module description:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +298,14 @@
   </si>
   <si>
     <t>0x101E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reg Array Type 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reg Array Type 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -728,7 +736,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -789,6 +797,9 @@
       <c r="E4" t="s">
         <v>34</v>
       </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -805,6 +816,9 @@
       </c>
       <c r="E5" t="s">
         <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">

--- a/excels/block1.xlsx
+++ b/excels/block1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\git\RegisterPrinter\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC025CC2-DB0A-4C31-A4C7-22954929B9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BB6A0D-CAD6-455D-8E1D-9B43814D884D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="1300" windowWidth="18520" windowHeight="15760" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
+    <workbookView xWindow="13890" yWindow="2140" windowWidth="18520" windowHeight="15760" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
   <si>
     <t>Module description:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,10 +99,6 @@
   </si>
   <si>
     <t>asdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -297,15 +293,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x101E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Reg Array Type 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Reg Array Type 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x101C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,7 +732,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -755,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -763,88 +759,88 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>25</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -869,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
@@ -900,7 +896,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -951,13 +947,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -968,16 +964,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -988,27 +984,27 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
         <v>44</v>
       </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1019,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1039,27 +1035,27 @@
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1070,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1090,27 +1086,27 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1121,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1141,16 +1137,16 @@
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1196,28 +1192,28 @@
     </row>
     <row r="5" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">

--- a/excels/block1.xlsx
+++ b/excels/block1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\git\RegisterPrinter\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BB6A0D-CAD6-455D-8E1D-9B43814D884D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29E0596-2E1A-4A79-A8FC-8AD08C57DEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13890" yWindow="2140" windowWidth="18520" windowHeight="15760" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
+    <workbookView xWindow="13890" yWindow="2140" windowWidth="18520" windowHeight="15760" activeTab="1" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
   <si>
     <t>Module description:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +302,10 @@
   </si>
   <si>
     <t>0x101C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4915A7C1-6506-4C54-966C-F795DE988BD6}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -1168,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D33A049-DC09-4FC1-9AD2-1B7B43D86792}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1269,7 +1273,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>

--- a/excels/block1.xlsx
+++ b/excels/block1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\git\RegisterPrinter\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29E0596-2E1A-4A79-A8FC-8AD08C57DEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892FF694-8A4E-48A5-BE8A-0B70CFAB2890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13890" yWindow="2140" windowWidth="18520" windowHeight="15760" activeTab="1" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
+    <workbookView xWindow="13890" yWindow="2140" windowWidth="18520" windowHeight="15760" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
@@ -174,14 +174,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0x1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x101E</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>reg_array1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -221,10 +213,6 @@
     <t>registeraa_field5</t>
   </si>
   <si>
-    <t>0x1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reg_a1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,10 +273,6 @@
     <t>registera3_field9</t>
   </si>
   <si>
-    <t>0x1020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,11 +285,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x101C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x11C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x11C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4915A7C1-6506-4C54-966C-F795DE988BD6}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -783,27 +783,27 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -812,13 +812,13 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -900,7 +900,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -951,13 +951,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
         <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>42</v>
       </c>
       <c r="G18" t="s">
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -988,27 +988,27 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
         <v>41</v>
       </c>
-      <c r="F19" t="s">
-        <v>43</v>
-      </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" t="s">
         <v>56</v>
-      </c>
-      <c r="H22" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1039,27 +1039,27 @@
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1070,16 +1070,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" t="s">
         <v>54</v>
       </c>
-      <c r="F26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" t="s">
-        <v>57</v>
-      </c>
       <c r="H26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1090,27 +1090,27 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
         <v>55</v>
       </c>
-      <c r="F27" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" t="s">
-        <v>58</v>
-      </c>
       <c r="H27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1121,16 +1121,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1141,16 +1141,16 @@
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1172,7 +1172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D33A049-DC09-4FC1-9AD2-1B7B43D86792}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>

--- a/excels/block1.xlsx
+++ b/excels/block1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\git\RegisterPrinter\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892FF694-8A4E-48A5-BE8A-0B70CFAB2890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA97556-9938-4AAB-BA3D-FB8F358F40E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13890" yWindow="2140" windowWidth="18520" windowHeight="15760" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
+    <workbookView xWindow="18530" yWindow="2000" windowWidth="18520" windowHeight="15760" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
@@ -298,14 +298,14 @@
   </si>
   <si>
     <t>0x11C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x11C</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>0x120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x118</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,7 +736,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -815,7 +815,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
         <v>64</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
         <v>47</v>

--- a/excels/block1.xlsx
+++ b/excels/block1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\git\RegisterPrinter\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA97556-9938-4AAB-BA3D-FB8F358F40E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD841A5-738E-40B9-B73F-D6A9C794152A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18530" yWindow="2000" windowWidth="18520" windowHeight="15760" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
+    <workbookView xWindow="3760" yWindow="6420" windowWidth="17300" windowHeight="14170" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
   <si>
     <t>Module description:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,6 +306,14 @@
   </si>
   <si>
     <t>0x118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register array:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register description:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,8 +428,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{991E8DFD-7F4D-4AEA-A9FC-EC543E27C555}" name="表1" displayName="表1" ref="A8:H32" totalsRowShown="0">
-  <autoFilter ref="A8:H32" xr:uid="{5EEAF473-4C15-42DD-8CEE-26095326A763}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{991E8DFD-7F4D-4AEA-A9FC-EC543E27C555}" name="表1" displayName="表1" ref="A9:H33" totalsRowShown="0">
+  <autoFilter ref="A9:H33" xr:uid="{5EEAF473-4C15-42DD-8CEE-26095326A763}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{AB1A720C-DB69-4BB5-85E0-49980FA4631F}" name="Offset"/>
     <tableColumn id="2" xr3:uid="{21E4A337-5BAE-4855-955A-C2717BFA7B44}" name="Name"/>
@@ -733,21 +741,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4915A7C1-6506-4C54-966C-F795DE988BD6}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="12.08203125" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -762,182 +770,172 @@
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="B4">
+      <c r="C5">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
         <v>53</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" t="s">
         <v>66</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F5" t="s">
         <v>66</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="B5">
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F6" t="s">
         <v>68</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
         <v>7</v>
       </c>
       <c r="H11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>53</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
@@ -946,100 +944,100 @@
         <v>7</v>
       </c>
       <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>67</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C20">
         <v>31</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>4</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>39</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>41</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>42</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>47</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C23">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
         <v>41</v>
@@ -1048,115 +1046,135 @@
         <v>53</v>
       </c>
       <c r="H23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>50</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H26" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C26">
-        <v>11</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C27">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
         <v>41</v>
       </c>
       <c r="G27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" t="s">
         <v>55</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>69</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>47</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C30">
-        <v>10</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C31">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
         <v>41</v>
       </c>
       <c r="G31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" t="s">
         <v>62</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H32" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F20 F22:F24 F26:F28 F30:F31" xr:uid="{4096D060-3F28-4448-80C0-EA07DD153096}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F21 F23:F25 F27:F29 F31:F32" xr:uid="{4096D060-3F28-4448-80C0-EA07DD153096}">
       <formula1>"RW, RO,RS,RC,W1C,WO,WRS,WRC"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1173,7 +1191,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1194,6 +1212,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="5" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>18</v>

--- a/excels/block1.xlsx
+++ b/excels/block1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\git\RegisterPrinter\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD841A5-738E-40B9-B73F-D6A9C794152A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E45927-E694-4196-9B41-68294BB4D6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="6420" windowWidth="17300" windowHeight="14170" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
+    <workbookView xWindow="15370" yWindow="4580" windowWidth="17300" windowHeight="14170" activeTab="1" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
   <si>
-    <t>Module description:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,10 +123,6 @@
   </si>
   <si>
     <t>Access</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -309,11 +301,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>register array:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register description:</t>
+    <t>Module description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +437,7 @@
     <tableColumn id="4" xr3:uid="{480FF24C-8EDE-44A8-A253-CA4C3E4C6101}" name="LSB"/>
     <tableColumn id="5" xr3:uid="{B602CBF1-6C1A-44D0-A536-D8B95FF2A257}" name="Field Name"/>
     <tableColumn id="6" xr3:uid="{C42831D1-5610-48C4-8380-9B8EA34F8FEB}" name="Access"/>
-    <tableColumn id="7" xr3:uid="{76649F71-CE59-4672-9FC3-5F65870665BE}" name="Default Value"/>
+    <tableColumn id="7" xr3:uid="{76649F71-CE59-4672-9FC3-5F65870665BE}" name="Default"/>
     <tableColumn id="8" xr3:uid="{D25B1402-89D8-40A3-9DE9-906ADFDC63AA}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4915A7C1-6506-4C54-966C-F795DE988BD6}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -760,10 +760,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -771,109 +771,109 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
         <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="H10" t="s">
         <v>2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -884,16 +884,16 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -904,27 +904,27 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -935,16 +935,16 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -955,27 +955,27 @@
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>38</v>
       </c>
-      <c r="F19" t="s">
-        <v>40</v>
-      </c>
       <c r="G19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1006,27 +1006,27 @@
         <v>4</v>
       </c>
       <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
       </c>
-      <c r="F20" t="s">
-        <v>41</v>
-      </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1037,16 +1037,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1057,27 +1057,27 @@
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1088,16 +1088,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1108,27 +1108,27 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" t="s">
         <v>54</v>
-      </c>
-      <c r="H31" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1159,16 +1159,16 @@
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D33A049-DC09-4FC1-9AD2-1B7B43D86792}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1203,55 +1203,55 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
         <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1262,16 +1262,16 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
         <v>4</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
         <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1282,27 +1282,27 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1313,16 +1313,16 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1333,16 +1333,16 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/excels/block1.xlsx
+++ b/excels/block1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\git\RegisterPrinter\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E45927-E694-4196-9B41-68294BB4D6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2E554B-025D-46F2-A008-6196D2BDA2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15370" yWindow="4580" windowWidth="17300" windowHeight="14170" activeTab="1" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
+    <workbookView xWindow="15220" yWindow="900" windowWidth="22110" windowHeight="14170" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
   <si>
     <t>0x0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,6 +314,18 @@
   </si>
   <si>
     <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1a0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regtt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,8 +440,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{991E8DFD-7F4D-4AEA-A9FC-EC543E27C555}" name="表1" displayName="表1" ref="A9:H33" totalsRowShown="0">
-  <autoFilter ref="A9:H33" xr:uid="{5EEAF473-4C15-42DD-8CEE-26095326A763}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{991E8DFD-7F4D-4AEA-A9FC-EC543E27C555}" name="表1" displayName="表1" ref="A9:H35" totalsRowShown="0">
+  <autoFilter ref="A9:H35" xr:uid="{5EEAF473-4C15-42DD-8CEE-26095326A763}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{AB1A720C-DB69-4BB5-85E0-49980FA4631F}" name="Offset"/>
     <tableColumn id="2" xr3:uid="{21E4A337-5BAE-4855-955A-C2717BFA7B44}" name="Name"/>
@@ -741,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4915A7C1-6506-4C54-966C-F795DE988BD6}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1000,7 +1012,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C20">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -1171,10 +1183,38 @@
         <v>55</v>
       </c>
     </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F21 F23:F25 F27:F29 F31:F32" xr:uid="{4096D060-3F28-4448-80C0-EA07DD153096}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F21 F23:F25 F27:F29 F31:F33 F35" xr:uid="{4096D060-3F28-4448-80C0-EA07DD153096}">
       <formula1>"RW, RO,RS,RC,W1C,WO,WRS,WRC"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1190,7 +1230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D33A049-DC09-4FC1-9AD2-1B7B43D86792}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>

--- a/excels/block1.xlsx
+++ b/excels/block1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\git\RegisterPrinter\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangpe/git/RegisterPrinter/register_printer/tests/dataset/dataset1/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2E554B-025D-46F2-A008-6196D2BDA2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBA2891-EFF6-F84D-9B13-406A7A8D02AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15220" yWindow="900" windowWidth="22110" windowHeight="14170" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
+    <workbookView xWindow="6680" yWindow="900" windowWidth="22120" windowHeight="14180" activeTab="1" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
   <si>
     <t>0x0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +327,9 @@
   <si>
     <t>Field9</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -337,14 +340,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -353,14 +356,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -369,7 +372,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -424,7 +427,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -457,7 +460,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -755,22 +758,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4915A7C1-6506-4C54-966C-F795DE988BD6}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+    <col min="3" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -778,15 +781,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -806,7 +809,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>33</v>
       </c>
@@ -826,7 +829,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>34</v>
       </c>
@@ -846,12 +849,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -877,7 +880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -888,7 +891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>7</v>
       </c>
@@ -908,7 +911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>10</v>
       </c>
@@ -928,7 +931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -939,7 +942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>7</v>
       </c>
@@ -959,7 +962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>12</v>
       </c>
@@ -979,7 +982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -990,7 +993,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>3</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>14</v>
       </c>
@@ -1030,7 +1033,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1041,7 +1044,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>10</v>
       </c>
@@ -1061,7 +1064,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>31</v>
       </c>
@@ -1081,7 +1084,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -1092,7 +1095,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>11</v>
       </c>
@@ -1112,7 +1115,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>15</v>
       </c>
@@ -1132,7 +1135,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C31">
         <v>10</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C32">
         <v>31</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -1191,7 +1194,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C35">
         <v>10</v>
       </c>
@@ -1230,18 +1233,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D33A049-DC09-4FC1-9AD2-1B7B43D86792}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1252,12 +1255,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1283,7 +1286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +1297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>7</v>
       </c>
@@ -1302,10 +1305,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
@@ -1314,7 +1317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>10</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>7</v>
       </c>
@@ -1365,7 +1368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>12</v>
       </c>

--- a/excels/block1.xlsx
+++ b/excels/block1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangpe/git/RegisterPrinter/register_printer/tests/dataset/dataset1/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\git\RegisterPrinter\register_printer\tests\dataset\dataset1\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBA2891-EFF6-F84D-9B13-406A7A8D02AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45558AEB-7EB5-4A17-BC99-2538D182B0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="900" windowWidth="22120" windowHeight="14180" activeTab="1" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
+    <workbookView xWindow="7580" yWindow="3800" windowWidth="28800" windowHeight="15360" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
@@ -21,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="78">
   <si>
     <t>0x0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,10 +199,6 @@
     <t>registeraa_field5</t>
   </si>
   <si>
-    <t>reg_a1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reg_a2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,6 +320,14 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>REG_A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG_A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -340,14 +338,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -356,14 +354,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -372,7 +370,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -427,7 +425,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -460,7 +458,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -758,11 +756,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4915A7C1-6506-4C54-966C-F795DE988BD6}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -773,23 +771,23 @@
     <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -809,7 +807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>33</v>
       </c>
@@ -817,19 +815,19 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>34</v>
       </c>
@@ -843,18 +841,18 @@
         <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -874,13 +872,13 @@
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -891,7 +889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>7</v>
       </c>
@@ -911,7 +909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>10</v>
       </c>
@@ -931,9 +929,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -942,7 +940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>7</v>
       </c>
@@ -962,7 +960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>12</v>
       </c>
@@ -982,18 +980,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>3</v>
       </c>
@@ -1013,7 +1011,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>14</v>
       </c>
@@ -1033,18 +1031,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>10</v>
       </c>
@@ -1052,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>31</v>
       </c>
@@ -1072,30 +1070,30 @@
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
         <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>11</v>
       </c>
@@ -1103,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>15</v>
       </c>
@@ -1123,30 +1121,30 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>10</v>
       </c>
@@ -1154,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>31</v>
       </c>
@@ -1174,27 +1172,27 @@
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
         <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
         <v>73</v>
       </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>10</v>
       </c>
@@ -1202,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s">
         <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1233,20 +1231,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D33A049-DC09-4FC1-9AD2-1B7B43D86792}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
@@ -1255,12 +1253,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1280,13 +1278,13 @@
         <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1297,7 +1295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>7</v>
       </c>
@@ -1305,10 +1303,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
@@ -1317,7 +1315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>10</v>
       </c>
@@ -1337,9 +1335,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1348,7 +1346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>7</v>
       </c>
@@ -1368,7 +1366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>12</v>
       </c>

--- a/excels/block1.xlsx
+++ b/excels/block1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\git\RegisterPrinter\register_printer\tests\dataset\dataset1\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45558AEB-7EB5-4A17-BC99-2538D182B0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE4200C-EA53-4DDB-B985-76CAE5986F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="3800" windowWidth="28800" windowHeight="15360" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
+    <workbookView xWindow="2030" yWindow="4770" windowWidth="19940" windowHeight="15360" xr2:uid="{C83E0548-C80E-4E67-B2D8-AA055AFEE83E}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
@@ -214,10 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Field8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Field9</t>
   </si>
   <si>
@@ -327,6 +323,10 @@
   </si>
   <si>
     <t>REG_A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,7 +757,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -773,7 +773,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -815,16 +815,16 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -841,15 +841,15 @@
         <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -872,7 +872,7 @@
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -982,10 +982,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s">
         <v>41</v>
@@ -1036,10 +1036,10 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1056,10 +1056,10 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1076,21 +1076,21 @@
         <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
         <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1121,27 +1121,27 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
         <v>44</v>
       </c>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1158,10 +1158,10 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1178,18 +1178,18 @@
         <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
         <v>72</v>
-      </c>
-      <c r="B34" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1200,23 +1200,23 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F35" t="s">
         <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F21 F23:F25 F27:F29 F31:F33 F35" xr:uid="{4096D060-3F28-4448-80C0-EA07DD153096}">
-      <formula1>"RW, RO,RS,RC,W1C,WO,WRS,WRC"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F35" xr:uid="{EA86D225-F788-48D8-BBE3-273BFCAFA5D9}">
+      <formula1>"RW, RO,RS,RC,W1C,WO,WRS,WRC,-"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1244,7 +1244,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1278,7 +1278,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>23</v>
@@ -1303,10 +1303,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
